--- a/external/correzioni/TAA2.xlsx
+++ b/external/correzioni/TAA2.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidenicoli/Local_Workspace/TesiMag/external/correzioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F87233-1E15-994A-B4B0-DE9129A025A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D47BE54-A82B-B044-BD82-D7A36FE14A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAA_merged_MM" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TAA_merged_MM!$A$1:$AF$416</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6138" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6140" uniqueCount="1181">
   <si>
     <t>sensor_key</t>
   </si>
@@ -3557,6 +3560,12 @@
   </si>
   <si>
     <t>ele_ok</t>
+  </si>
+  <si>
+    <t>loc_precision</t>
+  </si>
+  <si>
+    <t>elev_precision</t>
   </si>
 </sst>
 </file>
@@ -4399,11 +4408,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD416"/>
+  <dimension ref="A1:AF416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="topRight" activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4434,11 +4444,12 @@
     <col min="25" max="25" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15.5" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="81.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.1640625" customWidth="1"/>
+    <col min="30" max="31" width="14.83203125" customWidth="1"/>
+    <col min="32" max="32" width="81.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4526,11 +4537,17 @@
       <c r="AC1" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -4612,11 +4629,13 @@
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -4698,11 +4717,13 @@
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
-      <c r="AD3" s="10" t="s">
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>360</v>
       </c>
@@ -4782,7 +4803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>606</v>
       </c>
@@ -4862,7 +4883,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>607</v>
       </c>
@@ -4942,7 +4963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>608</v>
       </c>
@@ -5022,7 +5043,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>609</v>
       </c>
@@ -5102,7 +5123,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>610</v>
       </c>
@@ -5182,7 +5203,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>611</v>
       </c>
@@ -5262,7 +5283,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>612</v>
       </c>
@@ -5342,7 +5363,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>364</v>
       </c>
@@ -5422,7 +5443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>365</v>
       </c>
@@ -5502,7 +5523,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>613</v>
       </c>
@@ -5582,7 +5603,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>614</v>
       </c>
@@ -5662,7 +5683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>615</v>
       </c>
@@ -5742,7 +5763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>616</v>
       </c>
@@ -5822,7 +5843,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -5902,7 +5923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>617</v>
       </c>
@@ -5981,11 +6002,11 @@
       <c r="Z19" t="s">
         <v>36</v>
       </c>
-      <c r="AD19" s="4" t="s">
+      <c r="AF19" s="4" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>618</v>
       </c>
@@ -6065,7 +6086,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>371</v>
       </c>
@@ -6145,7 +6166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>619</v>
       </c>
@@ -6225,7 +6246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>620</v>
       </c>
@@ -6305,7 +6326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>621</v>
       </c>
@@ -6385,7 +6406,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>622</v>
       </c>
@@ -6465,7 +6486,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>623</v>
       </c>
@@ -6545,7 +6566,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>19</v>
       </c>
@@ -6627,11 +6648,13 @@
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
-      <c r="AD27" s="10" t="s">
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>377</v>
       </c>
@@ -6711,7 +6734,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>624</v>
       </c>
@@ -6791,7 +6814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>370</v>
       </c>
@@ -6879,11 +6902,13 @@
       <c r="AC30" s="8">
         <v>1362</v>
       </c>
-      <c r="AD30" s="10" t="s">
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="10" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>626</v>
       </c>
@@ -6963,7 +6988,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>627</v>
       </c>
@@ -7043,7 +7068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>628</v>
       </c>
@@ -7123,7 +7148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>26</v>
       </c>
@@ -7205,11 +7230,13 @@
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
-      <c r="AD34" s="10" t="s">
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>380</v>
       </c>
@@ -7291,11 +7318,13 @@
       <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
-      <c r="AD35" s="10" t="s">
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>629</v>
       </c>
@@ -7375,7 +7404,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>630</v>
       </c>
@@ -7455,7 +7484,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>631</v>
       </c>
@@ -7535,7 +7564,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>31</v>
       </c>
@@ -7615,7 +7644,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>384</v>
       </c>
@@ -7695,7 +7724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>632</v>
       </c>
@@ -7775,7 +7804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>34</v>
       </c>
@@ -7855,7 +7884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>633</v>
       </c>
@@ -7935,7 +7964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>634</v>
       </c>
@@ -8015,7 +8044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>635</v>
       </c>
@@ -8095,7 +8124,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>38</v>
       </c>
@@ -8177,11 +8206,13 @@
       <c r="AA46" s="8"/>
       <c r="AB46" s="8"/>
       <c r="AC46" s="8"/>
-      <c r="AD46" s="10" t="s">
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>636</v>
       </c>
@@ -8263,11 +8294,13 @@
       <c r="AA47" s="8"/>
       <c r="AB47" s="8"/>
       <c r="AC47" s="8"/>
-      <c r="AD47" s="10" t="s">
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>637</v>
       </c>
@@ -8347,7 +8380,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>638</v>
       </c>
@@ -8427,7 +8460,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>42</v>
       </c>
@@ -8509,11 +8542,13 @@
       <c r="AA50" s="8"/>
       <c r="AB50" s="8"/>
       <c r="AC50" s="8"/>
-      <c r="AD50" s="10" t="s">
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>639</v>
       </c>
@@ -8593,7 +8628,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>44</v>
       </c>
@@ -8673,7 +8708,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>640</v>
       </c>
@@ -8755,11 +8790,13 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
-      <c r="AD53" s="7" t="s">
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="7" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>45</v>
       </c>
@@ -8838,14 +8875,20 @@
       <c r="Z54" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
+      <c r="AA54" s="5">
+        <v>11.338761999999999</v>
+      </c>
+      <c r="AB54" s="5">
+        <v>46.260356999999999</v>
+      </c>
       <c r="AC54" s="5"/>
-      <c r="AD54" s="7" t="s">
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="7" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>641</v>
       </c>
@@ -8925,7 +8968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>642</v>
       </c>
@@ -9005,7 +9048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>49</v>
       </c>
@@ -9085,7 +9128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>390</v>
       </c>
@@ -9167,11 +9210,13 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
-      <c r="AD58" s="7" t="s">
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="7" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>643</v>
       </c>
@@ -9251,7 +9296,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>644</v>
       </c>
@@ -9331,7 +9376,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>645</v>
       </c>
@@ -9411,7 +9456,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>646</v>
       </c>
@@ -9491,7 +9536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>647</v>
       </c>
@@ -9571,7 +9616,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>54</v>
       </c>
@@ -9653,11 +9698,13 @@
       <c r="AA64" s="8"/>
       <c r="AB64" s="8"/>
       <c r="AC64" s="8"/>
-      <c r="AD64" s="10" t="s">
+      <c r="AD64" s="8"/>
+      <c r="AE64" s="8"/>
+      <c r="AF64" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>648</v>
       </c>
@@ -9737,7 +9784,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>649</v>
       </c>
@@ -9817,7 +9864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>650</v>
       </c>
@@ -9897,7 +9944,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>60</v>
       </c>
@@ -9977,7 +10024,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>651</v>
       </c>
@@ -10057,7 +10104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>652</v>
       </c>
@@ -10139,11 +10186,13 @@
       <c r="AA70" s="8"/>
       <c r="AB70" s="8"/>
       <c r="AC70" s="8"/>
-      <c r="AD70" s="10" t="s">
+      <c r="AD70" s="8"/>
+      <c r="AE70" s="8"/>
+      <c r="AF70" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>653</v>
       </c>
@@ -10225,11 +10274,13 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
-      <c r="AD71" s="7" t="s">
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="7" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>654</v>
       </c>
@@ -10309,7 +10360,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>655</v>
       </c>
@@ -10391,11 +10442,13 @@
       <c r="AA73" s="8"/>
       <c r="AB73" s="8"/>
       <c r="AC73" s="8"/>
-      <c r="AD73" s="10" t="s">
+      <c r="AD73" s="8"/>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>656</v>
       </c>
@@ -10475,7 +10528,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>658</v>
       </c>
@@ -10555,7 +10608,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>659</v>
       </c>
@@ -10637,11 +10690,13 @@
       <c r="AA76" s="8"/>
       <c r="AB76" s="8"/>
       <c r="AC76" s="8"/>
-      <c r="AD76" s="10" t="s">
+      <c r="AD76" s="8"/>
+      <c r="AE76" s="8"/>
+      <c r="AF76" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>660</v>
       </c>
@@ -10721,7 +10776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>661</v>
       </c>
@@ -10801,7 +10856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>662</v>
       </c>
@@ -10881,7 +10936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>663</v>
       </c>
@@ -10961,7 +11016,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>402</v>
       </c>
@@ -11043,11 +11098,13 @@
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
       <c r="AC81" s="5"/>
-      <c r="AD81" s="7" t="s">
+      <c r="AD81" s="5"/>
+      <c r="AE81" s="5"/>
+      <c r="AF81" s="7" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>664</v>
       </c>
@@ -11127,7 +11184,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>404</v>
       </c>
@@ -11207,7 +11264,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>665</v>
       </c>
@@ -11287,7 +11344,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>666</v>
       </c>
@@ -11367,7 +11424,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>667</v>
       </c>
@@ -11447,7 +11504,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>75</v>
       </c>
@@ -11529,11 +11586,13 @@
       <c r="AA87" s="8"/>
       <c r="AB87" s="8"/>
       <c r="AC87" s="8"/>
-      <c r="AD87" s="10" t="s">
+      <c r="AD87" s="8"/>
+      <c r="AE87" s="8"/>
+      <c r="AF87" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>668</v>
       </c>
@@ -11613,7 +11672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>669</v>
       </c>
@@ -11693,7 +11752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>670</v>
       </c>
@@ -11773,7 +11832,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>671</v>
       </c>
@@ -11853,7 +11912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>672</v>
       </c>
@@ -11933,7 +11992,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>673</v>
       </c>
@@ -12013,7 +12072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>674</v>
       </c>
@@ -12093,7 +12152,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>408</v>
       </c>
@@ -12173,7 +12232,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>409</v>
       </c>
@@ -12255,11 +12314,13 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
-      <c r="AD96" s="7" t="s">
+      <c r="AD96" s="5"/>
+      <c r="AE96" s="5"/>
+      <c r="AF96" s="7" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>410</v>
       </c>
@@ -12339,7 +12400,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>411</v>
       </c>
@@ -12421,11 +12482,13 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
       <c r="AC98" s="5"/>
-      <c r="AD98" s="7" t="s">
+      <c r="AD98" s="5"/>
+      <c r="AE98" s="5"/>
+      <c r="AF98" s="7" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>412</v>
       </c>
@@ -12505,7 +12568,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>675</v>
       </c>
@@ -12585,7 +12648,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>405</v>
       </c>
@@ -12667,11 +12730,13 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
       <c r="AC101" s="5"/>
-      <c r="AD101" s="7" t="s">
+      <c r="AD101" s="5"/>
+      <c r="AE101" s="5"/>
+      <c r="AF101" s="7" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>676</v>
       </c>
@@ -12753,11 +12818,13 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
       <c r="AC102" s="5"/>
-      <c r="AD102" s="7" t="s">
+      <c r="AD102" s="5"/>
+      <c r="AE102" s="5"/>
+      <c r="AF102" s="7" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>677</v>
       </c>
@@ -12837,7 +12904,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>415</v>
       </c>
@@ -12917,7 +12984,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>678</v>
       </c>
@@ -12997,7 +13064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>679</v>
       </c>
@@ -13077,7 +13144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>84</v>
       </c>
@@ -13159,11 +13226,13 @@
       <c r="AA107" s="8"/>
       <c r="AB107" s="8"/>
       <c r="AC107" s="8"/>
-      <c r="AD107" s="10" t="s">
+      <c r="AD107" s="8"/>
+      <c r="AE107" s="8"/>
+      <c r="AF107" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>417</v>
       </c>
@@ -13243,7 +13312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>680</v>
       </c>
@@ -13323,7 +13392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>85</v>
       </c>
@@ -13403,7 +13472,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>681</v>
       </c>
@@ -13483,7 +13552,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>682</v>
       </c>
@@ -13565,11 +13634,13 @@
       <c r="AA112" s="8"/>
       <c r="AB112" s="8"/>
       <c r="AC112" s="8"/>
-      <c r="AD112" s="10" t="s">
+      <c r="AD112" s="8"/>
+      <c r="AE112" s="8"/>
+      <c r="AF112" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>683</v>
       </c>
@@ -13649,7 +13720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>684</v>
       </c>
@@ -13731,11 +13802,13 @@
       <c r="AA114" s="8"/>
       <c r="AB114" s="8"/>
       <c r="AC114" s="8"/>
-      <c r="AD114" s="10" t="s">
+      <c r="AD114" s="8"/>
+      <c r="AE114" s="8"/>
+      <c r="AF114" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>685</v>
       </c>
@@ -13815,7 +13888,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>686</v>
       </c>
@@ -13895,7 +13968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>687</v>
       </c>
@@ -13975,7 +14048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>688</v>
       </c>
@@ -14055,7 +14128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>689</v>
       </c>
@@ -14135,7 +14208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>690</v>
       </c>
@@ -14215,7 +14288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>425</v>
       </c>
@@ -14297,11 +14370,13 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
       <c r="AC121" s="5"/>
-      <c r="AD121" s="7" t="s">
+      <c r="AD121" s="5"/>
+      <c r="AE121" s="5"/>
+      <c r="AF121" s="7" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>691</v>
       </c>
@@ -14381,7 +14456,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>692</v>
       </c>
@@ -14461,7 +14536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>693</v>
       </c>
@@ -14541,7 +14616,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>427</v>
       </c>
@@ -14621,7 +14696,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>694</v>
       </c>
@@ -14701,7 +14776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>695</v>
       </c>
@@ -14781,7 +14856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>698</v>
       </c>
@@ -14861,7 +14936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>696</v>
       </c>
@@ -14941,7 +15016,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>697</v>
       </c>
@@ -15023,11 +15098,13 @@
       <c r="AA130" s="8"/>
       <c r="AB130" s="8"/>
       <c r="AC130" s="8"/>
-      <c r="AD130" s="10" t="s">
+      <c r="AD130" s="8"/>
+      <c r="AE130" s="8"/>
+      <c r="AF130" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>699</v>
       </c>
@@ -15107,7 +15184,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>700</v>
       </c>
@@ -15187,7 +15264,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>701</v>
       </c>
@@ -15267,7 +15344,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>104</v>
       </c>
@@ -15349,11 +15426,13 @@
       <c r="AA134" s="8"/>
       <c r="AB134" s="8"/>
       <c r="AC134" s="8"/>
-      <c r="AD134" s="10" t="s">
+      <c r="AD134" s="8"/>
+      <c r="AE134" s="8"/>
+      <c r="AF134" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>702</v>
       </c>
@@ -15435,11 +15514,13 @@
       <c r="AA135" s="8"/>
       <c r="AB135" s="8"/>
       <c r="AC135" s="8"/>
-      <c r="AD135" s="10" t="s">
+      <c r="AD135" s="8"/>
+      <c r="AE135" s="8"/>
+      <c r="AF135" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>703</v>
       </c>
@@ -15519,7 +15600,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>704</v>
       </c>
@@ -15599,7 +15680,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>431</v>
       </c>
@@ -15679,7 +15760,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>119</v>
       </c>
@@ -15761,11 +15842,13 @@
       <c r="AA139" s="8"/>
       <c r="AB139" s="8"/>
       <c r="AC139" s="8"/>
-      <c r="AD139" s="10" t="s">
+      <c r="AD139" s="8"/>
+      <c r="AE139" s="8"/>
+      <c r="AF139" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <v>109</v>
       </c>
@@ -15847,11 +15930,13 @@
       <c r="AA140" s="8"/>
       <c r="AB140" s="8"/>
       <c r="AC140" s="8"/>
-      <c r="AD140" s="10" t="s">
+      <c r="AD140" s="8"/>
+      <c r="AE140" s="8"/>
+      <c r="AF140" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>705</v>
       </c>
@@ -15931,7 +16016,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>706</v>
       </c>
@@ -16011,7 +16096,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>707</v>
       </c>
@@ -16091,7 +16176,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>708</v>
       </c>
@@ -16171,7 +16256,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>433</v>
       </c>
@@ -16251,7 +16336,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>709</v>
       </c>
@@ -16331,7 +16416,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>435</v>
       </c>
@@ -16411,7 +16496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>710</v>
       </c>
@@ -16491,7 +16576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>711</v>
       </c>
@@ -16571,7 +16656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>118</v>
       </c>
@@ -16651,7 +16736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>438</v>
       </c>
@@ -16731,7 +16816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>712</v>
       </c>
@@ -16811,7 +16896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <v>120</v>
       </c>
@@ -16893,11 +16978,13 @@
       <c r="AA153" s="8"/>
       <c r="AB153" s="8"/>
       <c r="AC153" s="8"/>
-      <c r="AD153" s="10" t="s">
+      <c r="AD153" s="8"/>
+      <c r="AE153" s="8"/>
+      <c r="AF153" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>714</v>
       </c>
@@ -16977,7 +17064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>715</v>
       </c>
@@ -17057,7 +17144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>443</v>
       </c>
@@ -17137,7 +17224,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>716</v>
       </c>
@@ -17219,11 +17306,13 @@
       <c r="AA157" s="8"/>
       <c r="AB157" s="8"/>
       <c r="AC157" s="8"/>
-      <c r="AD157" s="10" t="s">
+      <c r="AD157" s="8"/>
+      <c r="AE157" s="8"/>
+      <c r="AF157" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>445</v>
       </c>
@@ -17303,7 +17392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
         <v>446</v>
       </c>
@@ -17385,11 +17474,13 @@
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
       <c r="AC159" s="5"/>
-      <c r="AD159" s="7" t="s">
+      <c r="AD159" s="5"/>
+      <c r="AE159" s="5"/>
+      <c r="AF159" s="7" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>717</v>
       </c>
@@ -17469,7 +17560,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>718</v>
       </c>
@@ -17549,7 +17640,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>451</v>
       </c>
@@ -17629,7 +17720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>452</v>
       </c>
@@ -17709,7 +17800,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A164" s="8">
         <v>132</v>
       </c>
@@ -17791,11 +17882,13 @@
       <c r="AA164" s="8"/>
       <c r="AB164" s="8"/>
       <c r="AC164" s="8"/>
-      <c r="AD164" s="10" t="s">
+      <c r="AD164" s="8"/>
+      <c r="AE164" s="8"/>
+      <c r="AF164" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>719</v>
       </c>
@@ -17875,7 +17968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>720</v>
       </c>
@@ -17955,7 +18048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>454</v>
       </c>
@@ -18035,7 +18128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>455</v>
       </c>
@@ -18115,7 +18208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>135</v>
       </c>
@@ -18195,7 +18288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>456</v>
       </c>
@@ -18275,7 +18368,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>721</v>
       </c>
@@ -18355,7 +18448,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>722</v>
       </c>
@@ -18435,7 +18528,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>723</v>
       </c>
@@ -18515,7 +18608,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>724</v>
       </c>
@@ -18595,7 +18688,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>458</v>
       </c>
@@ -18675,7 +18768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>725</v>
       </c>
@@ -18755,7 +18848,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A177" s="8">
         <v>136</v>
       </c>
@@ -18837,11 +18930,13 @@
       <c r="AA177" s="8"/>
       <c r="AB177" s="8"/>
       <c r="AC177" s="8"/>
-      <c r="AD177" s="10" t="s">
+      <c r="AD177" s="8"/>
+      <c r="AE177" s="8"/>
+      <c r="AF177" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>726</v>
       </c>
@@ -18921,7 +19016,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>727</v>
       </c>
@@ -19001,7 +19096,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>728</v>
       </c>
@@ -19081,7 +19176,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>729</v>
       </c>
@@ -19161,7 +19256,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>730</v>
       </c>
@@ -19241,7 +19336,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>731</v>
       </c>
@@ -19321,7 +19416,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>732</v>
       </c>
@@ -19401,7 +19496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>733</v>
       </c>
@@ -19481,7 +19576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>735</v>
       </c>
@@ -19561,7 +19656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>736</v>
       </c>
@@ -19641,7 +19736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>737</v>
       </c>
@@ -19721,7 +19816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>738</v>
       </c>
@@ -19801,7 +19896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>739</v>
       </c>
@@ -19881,7 +19976,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>740</v>
       </c>
@@ -19961,7 +20056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>148</v>
       </c>
@@ -20041,7 +20136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A193" s="8">
         <v>151</v>
       </c>
@@ -20123,11 +20218,13 @@
       <c r="AA193" s="8"/>
       <c r="AB193" s="8"/>
       <c r="AC193" s="8"/>
-      <c r="AD193" s="10" t="s">
+      <c r="AD193" s="8"/>
+      <c r="AE193" s="8"/>
+      <c r="AF193" s="10" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>155</v>
       </c>
@@ -20207,7 +20304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>156</v>
       </c>
@@ -20287,7 +20384,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>741</v>
       </c>
@@ -20367,7 +20464,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>742</v>
       </c>
@@ -20447,7 +20544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>743</v>
       </c>
@@ -20527,7 +20624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>744</v>
       </c>
@@ -20607,7 +20704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>745</v>
       </c>
@@ -20687,7 +20784,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>746</v>
       </c>
@@ -20767,7 +20864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>747</v>
       </c>
@@ -20847,7 +20944,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>748</v>
       </c>
@@ -20927,7 +21024,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>749</v>
       </c>
@@ -21007,7 +21104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>475</v>
       </c>
@@ -21087,7 +21184,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A206" s="5">
         <v>476</v>
       </c>
@@ -21175,11 +21272,13 @@
       <c r="AC206" s="5">
         <v>2129</v>
       </c>
-      <c r="AD206" s="7" t="s">
+      <c r="AD206" s="5"/>
+      <c r="AE206" s="5"/>
+      <c r="AF206" s="7" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>750</v>
       </c>
@@ -21259,7 +21358,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A208" s="8">
         <v>751</v>
       </c>
@@ -21341,11 +21440,13 @@
       <c r="AA208" s="8"/>
       <c r="AB208" s="8"/>
       <c r="AC208" s="8"/>
-      <c r="AD208" s="10" t="s">
+      <c r="AD208" s="8"/>
+      <c r="AE208" s="8"/>
+      <c r="AF208" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>752</v>
       </c>
@@ -21425,7 +21526,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>753</v>
       </c>
@@ -21505,7 +21606,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>754</v>
       </c>
@@ -21585,7 +21686,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>757</v>
       </c>
@@ -21665,7 +21766,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A213" s="8">
         <v>756</v>
       </c>
@@ -21747,11 +21848,13 @@
       <c r="AA213" s="8"/>
       <c r="AB213" s="8"/>
       <c r="AC213" s="8"/>
-      <c r="AD213" s="10" t="s">
+      <c r="AD213" s="8"/>
+      <c r="AE213" s="8"/>
+      <c r="AF213" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>755</v>
       </c>
@@ -21831,7 +21934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>758</v>
       </c>
@@ -21911,7 +22014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>759</v>
       </c>
@@ -21991,7 +22094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>760</v>
       </c>
@@ -22071,7 +22174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A218" s="5">
         <v>761</v>
       </c>
@@ -22153,11 +22256,13 @@
       <c r="AA218" s="5"/>
       <c r="AB218" s="5"/>
       <c r="AC218" s="5"/>
-      <c r="AD218" s="7" t="s">
+      <c r="AD218" s="5"/>
+      <c r="AE218" s="5"/>
+      <c r="AF218" s="7" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A219" s="5">
         <v>477</v>
       </c>
@@ -22239,11 +22344,13 @@
       <c r="AA219" s="5"/>
       <c r="AB219" s="5"/>
       <c r="AC219" s="5"/>
-      <c r="AD219" s="7" t="s">
+      <c r="AD219" s="5"/>
+      <c r="AE219" s="5"/>
+      <c r="AF219" s="7" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>762</v>
       </c>
@@ -22323,7 +22430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>764</v>
       </c>
@@ -22403,7 +22510,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>763</v>
       </c>
@@ -22483,7 +22590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>765</v>
       </c>
@@ -22563,7 +22670,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>766</v>
       </c>
@@ -22643,7 +22750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>768</v>
       </c>
@@ -22723,7 +22830,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>769</v>
       </c>
@@ -22803,7 +22910,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A227" s="8">
         <v>184</v>
       </c>
@@ -22885,11 +22992,13 @@
       <c r="AA227" s="8"/>
       <c r="AB227" s="8"/>
       <c r="AC227" s="8"/>
-      <c r="AD227" s="10" t="s">
+      <c r="AD227" s="8"/>
+      <c r="AE227" s="8"/>
+      <c r="AF227" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>770</v>
       </c>
@@ -22969,7 +23078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>771</v>
       </c>
@@ -23049,7 +23158,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>772</v>
       </c>
@@ -23129,7 +23238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>773</v>
       </c>
@@ -23209,7 +23318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>774</v>
       </c>
@@ -23289,7 +23398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>775</v>
       </c>
@@ -23369,7 +23478,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>776</v>
       </c>
@@ -23449,7 +23558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>777</v>
       </c>
@@ -23529,7 +23638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>778</v>
       </c>
@@ -23609,7 +23718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>779</v>
       </c>
@@ -23689,7 +23798,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>780</v>
       </c>
@@ -23769,7 +23878,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>781</v>
       </c>
@@ -23849,7 +23958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>782</v>
       </c>
@@ -23929,7 +24038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A241" s="8">
         <v>784</v>
       </c>
@@ -24011,11 +24120,13 @@
       <c r="AA241" s="8"/>
       <c r="AB241" s="8"/>
       <c r="AC241" s="8"/>
-      <c r="AD241" s="10" t="s">
+      <c r="AD241" s="8"/>
+      <c r="AE241" s="8"/>
+      <c r="AF241" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A242" s="5">
         <v>783</v>
       </c>
@@ -24097,11 +24208,13 @@
       <c r="AA242" s="5"/>
       <c r="AB242" s="5"/>
       <c r="AC242" s="5"/>
-      <c r="AD242" s="7" t="s">
+      <c r="AD242" s="5"/>
+      <c r="AE242" s="5"/>
+      <c r="AF242" s="7" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>785</v>
       </c>
@@ -24181,7 +24294,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A244" s="8">
         <v>208</v>
       </c>
@@ -24263,11 +24376,13 @@
       <c r="AA244" s="8"/>
       <c r="AB244" s="8"/>
       <c r="AC244" s="8"/>
-      <c r="AD244" s="10" t="s">
+      <c r="AD244" s="8"/>
+      <c r="AE244" s="8"/>
+      <c r="AF244" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>209</v>
       </c>
@@ -24347,7 +24462,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>210</v>
       </c>
@@ -24427,7 +24542,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>211</v>
       </c>
@@ -24507,7 +24622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>786</v>
       </c>
@@ -24587,7 +24702,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>787</v>
       </c>
@@ -24667,7 +24782,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>788</v>
       </c>
@@ -24747,7 +24862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>214</v>
       </c>
@@ -24827,7 +24942,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>789</v>
       </c>
@@ -24907,7 +25022,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A253" s="5">
         <v>511</v>
       </c>
@@ -24989,11 +25104,13 @@
       <c r="AA253" s="5"/>
       <c r="AB253" s="5"/>
       <c r="AC253" s="5"/>
-      <c r="AD253" s="7" t="s">
+      <c r="AD253" s="5"/>
+      <c r="AE253" s="5"/>
+      <c r="AF253" s="7" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A254" s="8">
         <v>217</v>
       </c>
@@ -25075,11 +25192,13 @@
       <c r="AA254" s="8"/>
       <c r="AB254" s="8"/>
       <c r="AC254" s="8"/>
-      <c r="AD254" s="10" t="s">
+      <c r="AD254" s="8"/>
+      <c r="AE254" s="8"/>
+      <c r="AF254" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>790</v>
       </c>
@@ -25159,7 +25278,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>791</v>
       </c>
@@ -25239,7 +25358,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>792</v>
       </c>
@@ -25319,7 +25438,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>793</v>
       </c>
@@ -25399,7 +25518,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>794</v>
       </c>
@@ -25479,7 +25598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A260" s="8">
         <v>514</v>
       </c>
@@ -25561,11 +25680,13 @@
       <c r="AA260" s="8"/>
       <c r="AB260" s="8"/>
       <c r="AC260" s="8"/>
-      <c r="AD260" s="10" t="s">
+      <c r="AD260" s="8"/>
+      <c r="AE260" s="8"/>
+      <c r="AF260" s="10" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A261" s="8">
         <v>222</v>
       </c>
@@ -25647,11 +25768,13 @@
       <c r="AA261" s="8"/>
       <c r="AB261" s="8"/>
       <c r="AC261" s="8"/>
-      <c r="AD261" s="10" t="s">
+      <c r="AD261" s="8"/>
+      <c r="AE261" s="8"/>
+      <c r="AF261" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>795</v>
       </c>
@@ -25731,7 +25854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>223</v>
       </c>
@@ -25811,7 +25934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A264" s="8">
         <v>796</v>
       </c>
@@ -25893,11 +26016,13 @@
       <c r="AA264" s="8"/>
       <c r="AB264" s="8"/>
       <c r="AC264" s="8"/>
-      <c r="AD264" s="10" t="s">
+      <c r="AD264" s="8"/>
+      <c r="AE264" s="8"/>
+      <c r="AF264" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>797</v>
       </c>
@@ -25977,7 +26102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>798</v>
       </c>
@@ -26057,7 +26182,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>799</v>
       </c>
@@ -26137,7 +26262,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>800</v>
       </c>
@@ -26217,7 +26342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A269" s="5">
         <v>517</v>
       </c>
@@ -26299,11 +26424,13 @@
       <c r="AA269" s="5"/>
       <c r="AB269" s="5"/>
       <c r="AC269" s="5"/>
-      <c r="AD269" s="7" t="s">
+      <c r="AD269" s="5"/>
+      <c r="AE269" s="5"/>
+      <c r="AF269" s="7" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>801</v>
       </c>
@@ -26383,7 +26510,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>802</v>
       </c>
@@ -26463,7 +26590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>803</v>
       </c>
@@ -26543,7 +26670,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A273" s="5">
         <v>516</v>
       </c>
@@ -26625,11 +26752,13 @@
       <c r="AA273" s="5"/>
       <c r="AB273" s="5"/>
       <c r="AC273" s="5"/>
-      <c r="AD273" s="7" t="s">
+      <c r="AD273" s="5"/>
+      <c r="AE273" s="5"/>
+      <c r="AF273" s="7" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>804</v>
       </c>
@@ -26709,7 +26838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A275" s="8">
         <v>231</v>
       </c>
@@ -26791,9 +26920,11 @@
       <c r="AA275" s="8"/>
       <c r="AB275" s="8"/>
       <c r="AC275" s="8"/>
-      <c r="AD275" s="10"/>
-    </row>
-    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD275" s="8"/>
+      <c r="AE275" s="8"/>
+      <c r="AF275" s="10"/>
+    </row>
+    <row r="276" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A276" s="8">
         <v>232</v>
       </c>
@@ -26875,11 +27006,13 @@
       <c r="AA276" s="8"/>
       <c r="AB276" s="8"/>
       <c r="AC276" s="8"/>
-      <c r="AD276" s="10" t="s">
+      <c r="AD276" s="8"/>
+      <c r="AE276" s="8"/>
+      <c r="AF276" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>805</v>
       </c>
@@ -26959,7 +27092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A278" s="8">
         <v>233</v>
       </c>
@@ -27041,9 +27174,11 @@
       <c r="AA278" s="8"/>
       <c r="AB278" s="8"/>
       <c r="AC278" s="8"/>
-      <c r="AD278" s="10"/>
-    </row>
-    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD278" s="8"/>
+      <c r="AE278" s="8"/>
+      <c r="AF278" s="10"/>
+    </row>
+    <row r="279" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>806</v>
       </c>
@@ -27123,7 +27258,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A280" s="8">
         <v>234</v>
       </c>
@@ -27205,11 +27340,13 @@
       <c r="AA280" s="8"/>
       <c r="AB280" s="8"/>
       <c r="AC280" s="8"/>
-      <c r="AD280" s="10" t="s">
+      <c r="AD280" s="8"/>
+      <c r="AE280" s="8"/>
+      <c r="AF280" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>522</v>
       </c>
@@ -27289,7 +27426,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>807</v>
       </c>
@@ -27369,7 +27506,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>238</v>
       </c>
@@ -27449,7 +27586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>808</v>
       </c>
@@ -27529,7 +27666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>809</v>
       </c>
@@ -27609,7 +27746,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>810</v>
       </c>
@@ -27689,7 +27826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A287" s="8">
         <v>242</v>
       </c>
@@ -27771,11 +27908,13 @@
       <c r="AA287" s="8"/>
       <c r="AB287" s="8"/>
       <c r="AC287" s="8"/>
-      <c r="AD287" s="10" t="s">
+      <c r="AD287" s="8"/>
+      <c r="AE287" s="8"/>
+      <c r="AF287" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>811</v>
       </c>
@@ -27855,7 +27994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>812</v>
       </c>
@@ -27935,190 +28074,200 @@
         <v>36</v>
       </c>
     </row>
-    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A290">
-        <v>531</v>
-      </c>
-      <c r="B290" t="s">
-        <v>26</v>
-      </c>
-      <c r="C290">
-        <v>2661</v>
-      </c>
-      <c r="D290" t="s">
-        <v>26</v>
-      </c>
-      <c r="E290" t="s">
-        <v>271</v>
-      </c>
-      <c r="F290" t="s">
-        <v>182</v>
-      </c>
-      <c r="G290" t="s">
-        <v>26</v>
-      </c>
-      <c r="H290" t="s">
+    <row r="290" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A290" s="8">
+        <v>286</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C290" s="8">
+        <v>3418</v>
+      </c>
+      <c r="D290" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E290" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F290" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G290" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H290" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I290" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J290" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K290" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L290" s="8">
+        <v>3418</v>
+      </c>
+      <c r="M290" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N290" s="8">
+        <v>11.10552</v>
+      </c>
+      <c r="O290" s="8">
+        <v>45.78904</v>
+      </c>
+      <c r="P290" s="8">
+        <v>550</v>
+      </c>
+      <c r="Q290" s="8">
+        <v>543.7939453125</v>
+      </c>
+      <c r="R290" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="S290" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T290" s="8">
+        <v>3476</v>
+      </c>
+      <c r="U290" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V290" s="9">
+        <v>37622</v>
+      </c>
+      <c r="W290" s="9">
+        <v>41183</v>
+      </c>
+      <c r="X290" s="8">
+        <v>1574</v>
+      </c>
+      <c r="Y290" s="8">
+        <v>1574</v>
+      </c>
+      <c r="Z290" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA290" s="8"/>
+      <c r="AB290" s="8"/>
+      <c r="AC290" s="8"/>
+      <c r="AD290" s="8"/>
+      <c r="AE290" s="8"/>
+      <c r="AF290" s="10" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="291" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A291" s="8">
+        <v>287</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C291" s="8">
+        <v>3276</v>
+      </c>
+      <c r="D291" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E291" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F291" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G291" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H291" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I290" t="s">
+      <c r="I291" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J290" t="s">
-        <v>31</v>
-      </c>
-      <c r="K290">
-        <v>160080</v>
-      </c>
-      <c r="L290">
-        <v>2661</v>
-      </c>
-      <c r="M290" t="s">
+      <c r="J291" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K291" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L291" s="8">
+        <v>3276</v>
+      </c>
+      <c r="M291" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N290">
-        <v>10.532999999999999</v>
-      </c>
-      <c r="O290">
-        <v>46.75</v>
-      </c>
-      <c r="P290">
-        <v>1461</v>
-      </c>
-      <c r="Q290">
-        <v>1448</v>
-      </c>
-      <c r="R290">
-        <v>6686</v>
-      </c>
-      <c r="S290" t="s">
-        <v>34</v>
-      </c>
-      <c r="T290" t="s">
-        <v>272</v>
-      </c>
-      <c r="U290" t="s">
-        <v>177</v>
-      </c>
-      <c r="V290" s="1">
-        <v>18629</v>
-      </c>
-      <c r="W290" s="1">
-        <v>45177</v>
-      </c>
-      <c r="X290">
-        <v>25837</v>
-      </c>
-      <c r="Y290">
-        <v>12241</v>
-      </c>
-      <c r="Z290" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A291" s="5">
-        <v>532</v>
-      </c>
-      <c r="B291" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C291" s="5">
-        <v>830</v>
-      </c>
-      <c r="D291" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E291" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F291" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G291" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H291" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I291" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J291" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K291" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="L291" s="5">
-        <v>830</v>
-      </c>
-      <c r="M291" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N291" s="5">
-        <v>11.936462000000001</v>
-      </c>
-      <c r="O291" s="5">
-        <v>46.568713000000002</v>
-      </c>
-      <c r="P291" s="5">
-        <v>1635</v>
-      </c>
-      <c r="Q291" s="5">
-        <v>1528.19494628906</v>
-      </c>
-      <c r="R291" s="5">
-        <v>12312</v>
-      </c>
-      <c r="S291" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="T291" s="5">
-        <v>3433</v>
-      </c>
-      <c r="U291" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="V291" s="6">
-        <v>23012</v>
-      </c>
-      <c r="W291" s="6">
-        <v>36160</v>
-      </c>
-      <c r="X291" s="5">
-        <v>11975</v>
-      </c>
-      <c r="Y291" s="5">
-        <v>2922</v>
-      </c>
-      <c r="Z291" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA291" s="5"/>
-      <c r="AB291" s="5"/>
-      <c r="AC291" s="5"/>
-      <c r="AD291" s="7" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="N291" s="8">
+        <v>11.2483</v>
+      </c>
+      <c r="O291" s="8">
+        <v>46.813299999999998</v>
+      </c>
+      <c r="P291" s="8">
+        <v>697</v>
+      </c>
+      <c r="Q291" s="8">
+        <v>724.25866699218795</v>
+      </c>
+      <c r="R291" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="S291" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T291" s="8">
+        <v>3511</v>
+      </c>
+      <c r="U291" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V291" s="9">
+        <v>37622</v>
+      </c>
+      <c r="W291" s="9">
+        <v>41183</v>
+      </c>
+      <c r="X291" s="8">
+        <v>1553</v>
+      </c>
+      <c r="Y291" s="8">
+        <v>1553</v>
+      </c>
+      <c r="Z291" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA291" s="8"/>
+      <c r="AB291" s="8"/>
+      <c r="AC291" s="8"/>
+      <c r="AD291" s="8"/>
+      <c r="AE291" s="8"/>
+      <c r="AF291" s="10" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="292" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>813</v>
+        <v>289</v>
       </c>
       <c r="B292" t="s">
         <v>26</v>
       </c>
       <c r="C292">
-        <v>89</v>
+        <v>3277</v>
       </c>
       <c r="D292" t="s">
-        <v>902</v>
+        <v>26</v>
       </c>
       <c r="E292" t="s">
-        <v>903</v>
+        <v>149</v>
       </c>
       <c r="F292" t="s">
-        <v>337</v>
+        <v>28</v>
       </c>
       <c r="G292" t="s">
         <v>26</v>
@@ -28133,72 +28282,72 @@
         <v>31</v>
       </c>
       <c r="K292" t="s">
-        <v>902</v>
+        <v>26</v>
       </c>
       <c r="L292">
-        <v>89</v>
+        <v>3277</v>
       </c>
       <c r="M292" t="s">
-        <v>334</v>
+        <v>32</v>
       </c>
       <c r="N292">
-        <v>11.331899999999999</v>
+        <v>12.244719999999999</v>
       </c>
       <c r="O292">
-        <v>46.5304</v>
+        <v>46.826949999999997</v>
       </c>
       <c r="P292">
-        <v>970</v>
+        <v>1509</v>
       </c>
       <c r="Q292">
-        <v>971.873046875</v>
+        <v>1554.30017089844</v>
       </c>
       <c r="R292" t="s">
-        <v>902</v>
+        <v>150</v>
       </c>
       <c r="S292" t="s">
         <v>34</v>
       </c>
       <c r="T292">
-        <v>208</v>
+        <v>3513</v>
       </c>
       <c r="U292" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V292" s="1">
-        <v>42308</v>
+        <v>37259</v>
       </c>
       <c r="W292" s="1">
-        <v>45313</v>
+        <v>45169</v>
       </c>
       <c r="X292">
-        <v>3002</v>
+        <v>5853</v>
       </c>
       <c r="Y292">
-        <v>3002</v>
+        <v>5853</v>
       </c>
       <c r="Z292" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>814</v>
+        <v>531</v>
       </c>
       <c r="B293" t="s">
         <v>26</v>
       </c>
       <c r="C293">
-        <v>88</v>
+        <v>2661</v>
       </c>
       <c r="D293" t="s">
-        <v>904</v>
+        <v>26</v>
       </c>
       <c r="E293" t="s">
-        <v>905</v>
+        <v>271</v>
       </c>
       <c r="F293" t="s">
-        <v>337</v>
+        <v>182</v>
       </c>
       <c r="G293" t="s">
         <v>26</v>
@@ -28212,150 +28361,158 @@
       <c r="J293" t="s">
         <v>31</v>
       </c>
-      <c r="K293" t="s">
-        <v>904</v>
+      <c r="K293">
+        <v>160080</v>
       </c>
       <c r="L293">
-        <v>88</v>
+        <v>2661</v>
       </c>
       <c r="M293" t="s">
         <v>32</v>
       </c>
       <c r="N293">
-        <v>11.3294849086762</v>
+        <v>10.532999999999999</v>
       </c>
       <c r="O293">
-        <v>46.539106477793297</v>
+        <v>46.75</v>
       </c>
       <c r="P293">
-        <v>1140</v>
+        <v>1461</v>
       </c>
       <c r="Q293">
-        <v>1141.68896484375</v>
-      </c>
-      <c r="R293" t="s">
-        <v>904</v>
+        <v>1448</v>
+      </c>
+      <c r="R293">
+        <v>6686</v>
       </c>
       <c r="S293" t="s">
         <v>34</v>
       </c>
       <c r="T293" t="s">
-        <v>906</v>
+        <v>272</v>
       </c>
       <c r="U293" t="s">
-        <v>326</v>
+        <v>177</v>
       </c>
       <c r="V293" s="1">
-        <v>28491</v>
+        <v>18629</v>
       </c>
       <c r="W293" s="1">
-        <v>42369</v>
+        <v>45177</v>
       </c>
       <c r="X293">
-        <v>13873</v>
+        <v>25837</v>
       </c>
       <c r="Y293">
-        <v>9495</v>
+        <v>12241</v>
       </c>
       <c r="Z293" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A294">
-        <v>534</v>
-      </c>
-      <c r="B294" t="s">
-        <v>26</v>
-      </c>
-      <c r="C294">
-        <v>791</v>
-      </c>
-      <c r="D294" t="s">
-        <v>26</v>
-      </c>
-      <c r="E294" t="s">
-        <v>275</v>
-      </c>
-      <c r="F294" t="s">
+    <row r="294" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A294" s="5">
+        <v>532</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C294" s="5">
+        <v>830</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F294" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G294" t="s">
-        <v>26</v>
-      </c>
-      <c r="H294" t="s">
+      <c r="G294" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H294" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I294" t="s">
+      <c r="I294" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J294" t="s">
-        <v>31</v>
-      </c>
-      <c r="K294" t="s">
-        <v>276</v>
-      </c>
-      <c r="L294">
-        <v>791</v>
-      </c>
-      <c r="M294" t="s">
+      <c r="J294" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K294" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="L294" s="5">
+        <v>830</v>
+      </c>
+      <c r="M294" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N294">
-        <v>11.247126</v>
-      </c>
-      <c r="O294">
-        <v>46.809061999999997</v>
-      </c>
-      <c r="P294">
-        <v>731</v>
-      </c>
-      <c r="Q294">
-        <v>703.34820556640602</v>
-      </c>
-      <c r="R294">
-        <v>12247</v>
-      </c>
-      <c r="S294" t="s">
-        <v>34</v>
-      </c>
-      <c r="T294" t="s">
-        <v>277</v>
-      </c>
-      <c r="U294" t="s">
-        <v>177</v>
-      </c>
-      <c r="V294" s="1">
-        <v>25934</v>
-      </c>
-      <c r="W294" s="1">
-        <v>41639</v>
-      </c>
-      <c r="X294">
-        <v>14833</v>
-      </c>
-      <c r="Y294">
-        <v>8730</v>
-      </c>
-      <c r="Z294" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="N294" s="5">
+        <v>11.936462000000001</v>
+      </c>
+      <c r="O294" s="5">
+        <v>46.568713000000002</v>
+      </c>
+      <c r="P294" s="5">
+        <v>1635</v>
+      </c>
+      <c r="Q294" s="5">
+        <v>1528.19494628906</v>
+      </c>
+      <c r="R294" s="5">
+        <v>12312</v>
+      </c>
+      <c r="S294" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T294" s="5">
+        <v>3433</v>
+      </c>
+      <c r="U294" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="V294" s="6">
+        <v>23012</v>
+      </c>
+      <c r="W294" s="6">
+        <v>36160</v>
+      </c>
+      <c r="X294" s="5">
+        <v>11975</v>
+      </c>
+      <c r="Y294" s="5">
+        <v>2922</v>
+      </c>
+      <c r="Z294" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA294" s="5"/>
+      <c r="AB294" s="5"/>
+      <c r="AC294" s="5"/>
+      <c r="AD294" s="5"/>
+      <c r="AE294" s="5"/>
+      <c r="AF294" s="7" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="295" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B295" t="s">
         <v>26</v>
       </c>
       <c r="C295">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="D295" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="E295" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="F295" t="s">
         <v>337</v>
@@ -28373,69 +28530,69 @@
         <v>31</v>
       </c>
       <c r="K295" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="L295">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="M295" t="s">
         <v>334</v>
       </c>
       <c r="N295">
-        <v>12.242699999999999</v>
+        <v>11.331899999999999</v>
       </c>
       <c r="O295">
-        <v>46.835299999999997</v>
+        <v>46.5304</v>
       </c>
       <c r="P295">
-        <v>1412</v>
+        <v>970</v>
       </c>
       <c r="Q295">
-        <v>1414.31665039062</v>
+        <v>971.873046875</v>
       </c>
       <c r="R295" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="S295" t="s">
         <v>34</v>
       </c>
-      <c r="T295" t="s">
-        <v>909</v>
+      <c r="T295">
+        <v>208</v>
       </c>
       <c r="U295" t="s">
-        <v>326</v>
+        <v>36</v>
       </c>
       <c r="V295" s="1">
-        <v>24473</v>
+        <v>42308</v>
       </c>
       <c r="W295" s="1">
         <v>45313</v>
       </c>
       <c r="X295">
-        <v>20811</v>
+        <v>3002</v>
       </c>
       <c r="Y295">
-        <v>12440</v>
+        <v>3002</v>
       </c>
       <c r="Z295" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A296">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B296" t="s">
         <v>26</v>
       </c>
       <c r="C296">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D296" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="E296" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="F296" t="s">
         <v>337</v>
@@ -28453,72 +28610,72 @@
         <v>31</v>
       </c>
       <c r="K296" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="L296">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="M296" t="s">
-        <v>334</v>
+        <v>32</v>
       </c>
       <c r="N296">
-        <v>11.8979</v>
+        <v>11.3294849086762</v>
       </c>
       <c r="O296">
-        <v>46.679200000000002</v>
+        <v>46.539106477793297</v>
       </c>
       <c r="P296">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="Q296">
-        <v>1152.41430664062</v>
+        <v>1141.68896484375</v>
       </c>
       <c r="R296" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="S296" t="s">
         <v>34</v>
       </c>
       <c r="T296" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="U296" t="s">
         <v>326</v>
       </c>
       <c r="V296" s="1">
-        <v>31778</v>
+        <v>28491</v>
       </c>
       <c r="W296" s="1">
-        <v>45313</v>
+        <v>42369</v>
       </c>
       <c r="X296">
-        <v>11435</v>
+        <v>13873</v>
       </c>
       <c r="Y296">
-        <v>11070</v>
+        <v>9495</v>
       </c>
       <c r="Z296" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>817</v>
+        <v>534</v>
       </c>
       <c r="B297" t="s">
         <v>26</v>
       </c>
       <c r="C297">
-        <v>27</v>
+        <v>791</v>
       </c>
       <c r="D297" t="s">
-        <v>913</v>
+        <v>26</v>
       </c>
       <c r="E297" t="s">
-        <v>914</v>
+        <v>275</v>
       </c>
       <c r="F297" t="s">
-        <v>337</v>
+        <v>171</v>
       </c>
       <c r="G297" t="s">
         <v>26</v>
@@ -28533,155 +28690,149 @@
         <v>31</v>
       </c>
       <c r="K297" t="s">
-        <v>913</v>
+        <v>276</v>
       </c>
       <c r="L297">
-        <v>27</v>
+        <v>791</v>
       </c>
       <c r="M297" t="s">
+        <v>32</v>
+      </c>
+      <c r="N297">
+        <v>11.247126</v>
+      </c>
+      <c r="O297">
+        <v>46.809061999999997</v>
+      </c>
+      <c r="P297">
+        <v>731</v>
+      </c>
+      <c r="Q297">
+        <v>703.34820556640602</v>
+      </c>
+      <c r="R297">
+        <v>12247</v>
+      </c>
+      <c r="S297" t="s">
+        <v>34</v>
+      </c>
+      <c r="T297" t="s">
+        <v>277</v>
+      </c>
+      <c r="U297" t="s">
+        <v>177</v>
+      </c>
+      <c r="V297" s="1">
+        <v>25934</v>
+      </c>
+      <c r="W297" s="1">
+        <v>41639</v>
+      </c>
+      <c r="X297">
+        <v>14833</v>
+      </c>
+      <c r="Y297">
+        <v>8730</v>
+      </c>
+      <c r="Z297" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="298" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>815</v>
+      </c>
+      <c r="B298" t="s">
+        <v>26</v>
+      </c>
+      <c r="C298">
+        <v>50</v>
+      </c>
+      <c r="D298" t="s">
+        <v>907</v>
+      </c>
+      <c r="E298" t="s">
+        <v>908</v>
+      </c>
+      <c r="F298" t="s">
+        <v>337</v>
+      </c>
+      <c r="G298" t="s">
+        <v>26</v>
+      </c>
+      <c r="H298" t="s">
+        <v>29</v>
+      </c>
+      <c r="I298" t="s">
+        <v>30</v>
+      </c>
+      <c r="J298" t="s">
+        <v>31</v>
+      </c>
+      <c r="K298" t="s">
+        <v>907</v>
+      </c>
+      <c r="L298">
+        <v>50</v>
+      </c>
+      <c r="M298" t="s">
         <v>334</v>
       </c>
-      <c r="N297">
-        <v>11.2296</v>
-      </c>
-      <c r="O297">
-        <v>46.782400000000003</v>
-      </c>
-      <c r="P297">
-        <v>586</v>
-      </c>
-      <c r="Q297">
-        <v>588.15472412109398</v>
-      </c>
-      <c r="R297" t="s">
-        <v>913</v>
-      </c>
-      <c r="S297" t="s">
-        <v>34</v>
-      </c>
-      <c r="T297" t="s">
-        <v>915</v>
-      </c>
-      <c r="U297" t="s">
+      <c r="N298">
+        <v>12.242699999999999</v>
+      </c>
+      <c r="O298">
+        <v>46.835299999999997</v>
+      </c>
+      <c r="P298">
+        <v>1412</v>
+      </c>
+      <c r="Q298">
+        <v>1414.31665039062</v>
+      </c>
+      <c r="R298" t="s">
+        <v>907</v>
+      </c>
+      <c r="S298" t="s">
+        <v>34</v>
+      </c>
+      <c r="T298" t="s">
+        <v>909</v>
+      </c>
+      <c r="U298" t="s">
         <v>326</v>
       </c>
-      <c r="V297" s="1">
-        <v>28856</v>
-      </c>
-      <c r="W297" s="1">
+      <c r="V298" s="1">
+        <v>24473</v>
+      </c>
+      <c r="W298" s="1">
         <v>45313</v>
       </c>
-      <c r="X297">
-        <v>16076</v>
-      </c>
-      <c r="Y297">
-        <v>12058</v>
-      </c>
-      <c r="Z297" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A298" s="8">
-        <v>818</v>
-      </c>
-      <c r="B298" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C298" s="8">
-        <v>74</v>
-      </c>
-      <c r="D298" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="E298" s="8" t="s">
-        <v>917</v>
-      </c>
-      <c r="F298" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="G298" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H298" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I298" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J298" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K298" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="L298" s="8">
-        <v>74</v>
-      </c>
-      <c r="M298" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="N298" s="8">
-        <v>11.689399999999999</v>
-      </c>
-      <c r="O298" s="8">
-        <v>46.6479</v>
-      </c>
-      <c r="P298" s="8">
-        <v>1327</v>
-      </c>
-      <c r="Q298" s="8">
-        <v>1318.07861328125</v>
-      </c>
-      <c r="R298" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="S298" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T298" s="8">
-        <v>213</v>
-      </c>
-      <c r="U298" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="V298" s="9">
-        <v>44450</v>
-      </c>
-      <c r="W298" s="9">
-        <v>45313</v>
-      </c>
-      <c r="X298" s="8">
-        <v>864</v>
-      </c>
-      <c r="Y298" s="8">
-        <v>864</v>
-      </c>
-      <c r="Z298" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA298" s="8"/>
-      <c r="AB298" s="8"/>
-      <c r="AC298" s="8"/>
-      <c r="AD298" s="10" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="X298">
+        <v>20811</v>
+      </c>
+      <c r="Y298">
+        <v>12440</v>
+      </c>
+      <c r="Z298" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="299" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B299" t="s">
         <v>26</v>
       </c>
       <c r="C299">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D299" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="E299" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="F299" t="s">
         <v>337</v>
@@ -28699,72 +28850,72 @@
         <v>31</v>
       </c>
       <c r="K299" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="L299">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="M299" t="s">
         <v>334</v>
       </c>
       <c r="N299">
-        <v>10.5289</v>
+        <v>11.8979</v>
       </c>
       <c r="O299">
-        <v>46.7759</v>
+        <v>46.679200000000002</v>
       </c>
       <c r="P299">
-        <v>1499</v>
+        <v>1150</v>
       </c>
       <c r="Q299">
-        <v>1498.59057617188</v>
+        <v>1152.41430664062</v>
       </c>
       <c r="R299" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="S299" t="s">
         <v>34</v>
       </c>
       <c r="T299" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="U299" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="V299" s="1">
-        <v>20455</v>
+        <v>31778</v>
       </c>
       <c r="W299" s="1">
         <v>45313</v>
       </c>
       <c r="X299">
-        <v>24607</v>
+        <v>11435</v>
       </c>
       <c r="Y299">
-        <v>12440</v>
+        <v>11070</v>
       </c>
       <c r="Z299" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>539</v>
+        <v>817</v>
       </c>
       <c r="B300" t="s">
         <v>26</v>
       </c>
       <c r="C300">
-        <v>833</v>
+        <v>27</v>
       </c>
       <c r="D300" t="s">
-        <v>26</v>
+        <v>913</v>
       </c>
       <c r="E300" t="s">
-        <v>278</v>
+        <v>914</v>
       </c>
       <c r="F300" t="s">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="G300" t="s">
         <v>26</v>
@@ -28779,324 +28930,320 @@
         <v>31</v>
       </c>
       <c r="K300" t="s">
+        <v>913</v>
+      </c>
+      <c r="L300">
+        <v>27</v>
+      </c>
+      <c r="M300" t="s">
+        <v>334</v>
+      </c>
+      <c r="N300">
+        <v>11.2296</v>
+      </c>
+      <c r="O300">
+        <v>46.782400000000003</v>
+      </c>
+      <c r="P300">
+        <v>586</v>
+      </c>
+      <c r="Q300">
+        <v>588.15472412109398</v>
+      </c>
+      <c r="R300" t="s">
+        <v>913</v>
+      </c>
+      <c r="S300" t="s">
+        <v>34</v>
+      </c>
+      <c r="T300" t="s">
+        <v>915</v>
+      </c>
+      <c r="U300" t="s">
+        <v>326</v>
+      </c>
+      <c r="V300" s="1">
+        <v>28856</v>
+      </c>
+      <c r="W300" s="1">
+        <v>45313</v>
+      </c>
+      <c r="X300">
+        <v>16076</v>
+      </c>
+      <c r="Y300">
+        <v>12058</v>
+      </c>
+      <c r="Z300" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="301" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A301" s="8">
+        <v>818</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C301" s="8">
+        <v>74</v>
+      </c>
+      <c r="D301" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="E301" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="F301" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="G301" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H301" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I301" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J301" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K301" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="L301" s="8">
+        <v>74</v>
+      </c>
+      <c r="M301" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="N301" s="8">
+        <v>11.689399999999999</v>
+      </c>
+      <c r="O301" s="8">
+        <v>46.6479</v>
+      </c>
+      <c r="P301" s="8">
+        <v>1327</v>
+      </c>
+      <c r="Q301" s="8">
+        <v>1318.07861328125</v>
+      </c>
+      <c r="R301" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="S301" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T301" s="8">
+        <v>213</v>
+      </c>
+      <c r="U301" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V301" s="9">
+        <v>44450</v>
+      </c>
+      <c r="W301" s="9">
+        <v>45313</v>
+      </c>
+      <c r="X301" s="8">
+        <v>864</v>
+      </c>
+      <c r="Y301" s="8">
+        <v>864</v>
+      </c>
+      <c r="Z301" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA301" s="8"/>
+      <c r="AB301" s="8"/>
+      <c r="AC301" s="8"/>
+      <c r="AD301" s="8"/>
+      <c r="AE301" s="8"/>
+      <c r="AF301" s="10" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="302" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>819</v>
+      </c>
+      <c r="B302" t="s">
+        <v>26</v>
+      </c>
+      <c r="C302">
+        <v>6</v>
+      </c>
+      <c r="D302" t="s">
+        <v>918</v>
+      </c>
+      <c r="E302" t="s">
+        <v>919</v>
+      </c>
+      <c r="F302" t="s">
+        <v>337</v>
+      </c>
+      <c r="G302" t="s">
+        <v>26</v>
+      </c>
+      <c r="H302" t="s">
+        <v>29</v>
+      </c>
+      <c r="I302" t="s">
+        <v>30</v>
+      </c>
+      <c r="J302" t="s">
+        <v>31</v>
+      </c>
+      <c r="K302" t="s">
+        <v>918</v>
+      </c>
+      <c r="L302">
+        <v>6</v>
+      </c>
+      <c r="M302" t="s">
+        <v>334</v>
+      </c>
+      <c r="N302">
+        <v>10.5289</v>
+      </c>
+      <c r="O302">
+        <v>46.7759</v>
+      </c>
+      <c r="P302">
+        <v>1499</v>
+      </c>
+      <c r="Q302">
+        <v>1498.59057617188</v>
+      </c>
+      <c r="R302" t="s">
+        <v>918</v>
+      </c>
+      <c r="S302" t="s">
+        <v>34</v>
+      </c>
+      <c r="T302" t="s">
+        <v>920</v>
+      </c>
+      <c r="U302" t="s">
+        <v>330</v>
+      </c>
+      <c r="V302" s="1">
+        <v>20455</v>
+      </c>
+      <c r="W302" s="1">
+        <v>45313</v>
+      </c>
+      <c r="X302">
+        <v>24607</v>
+      </c>
+      <c r="Y302">
+        <v>12440</v>
+      </c>
+      <c r="Z302" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="303" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>539</v>
+      </c>
+      <c r="B303" t="s">
+        <v>26</v>
+      </c>
+      <c r="C303">
+        <v>833</v>
+      </c>
+      <c r="D303" t="s">
+        <v>26</v>
+      </c>
+      <c r="E303" t="s">
+        <v>278</v>
+      </c>
+      <c r="F303" t="s">
+        <v>171</v>
+      </c>
+      <c r="G303" t="s">
+        <v>26</v>
+      </c>
+      <c r="H303" t="s">
+        <v>29</v>
+      </c>
+      <c r="I303" t="s">
+        <v>30</v>
+      </c>
+      <c r="J303" t="s">
+        <v>31</v>
+      </c>
+      <c r="K303" t="s">
         <v>279</v>
       </c>
-      <c r="L300">
+      <c r="L303">
         <v>833</v>
       </c>
-      <c r="M300" t="s">
+      <c r="M303" t="s">
         <v>32</v>
       </c>
-      <c r="N300">
+      <c r="N303">
         <v>11.922983</v>
       </c>
-      <c r="O300">
+      <c r="O303">
         <v>46.706434999999999</v>
       </c>
-      <c r="P300">
+      <c r="P303">
         <v>1194</v>
       </c>
-      <c r="Q300">
+      <c r="Q303">
         <v>1140.58666992188</v>
       </c>
-      <c r="R300">
+      <c r="R303">
         <v>12315</v>
       </c>
-      <c r="S300" t="s">
-        <v>34</v>
-      </c>
-      <c r="T300">
+      <c r="S303" t="s">
+        <v>34</v>
+      </c>
+      <c r="T303">
         <v>3469</v>
       </c>
-      <c r="U300" t="s">
+      <c r="U303" t="s">
         <v>173</v>
       </c>
-      <c r="V300" s="1">
+      <c r="V303" s="1">
         <v>32509</v>
       </c>
-      <c r="W300" s="1">
+      <c r="W303" s="1">
         <v>36160</v>
       </c>
-      <c r="X300">
+      <c r="X303">
         <v>3652</v>
       </c>
-      <c r="Y300">
+      <c r="Y303">
         <v>3287</v>
       </c>
-      <c r="Z300" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A301">
+      <c r="Z303" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="304" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A304">
         <v>820</v>
       </c>
-      <c r="B301" t="s">
-        <v>26</v>
-      </c>
-      <c r="C301">
+      <c r="B304" t="s">
+        <v>26</v>
+      </c>
+      <c r="C304">
         <v>47</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D304" t="s">
         <v>921</v>
       </c>
-      <c r="E301" t="s">
+      <c r="E304" t="s">
         <v>922</v>
       </c>
-      <c r="F301" t="s">
+      <c r="F304" t="s">
         <v>337</v>
-      </c>
-      <c r="G301" t="s">
-        <v>26</v>
-      </c>
-      <c r="H301" t="s">
-        <v>29</v>
-      </c>
-      <c r="I301" t="s">
-        <v>30</v>
-      </c>
-      <c r="J301" t="s">
-        <v>31</v>
-      </c>
-      <c r="K301" t="s">
-        <v>921</v>
-      </c>
-      <c r="L301">
-        <v>47</v>
-      </c>
-      <c r="M301" t="s">
-        <v>334</v>
-      </c>
-      <c r="N301">
-        <v>12.1</v>
-      </c>
-      <c r="O301">
-        <v>46.7119</v>
-      </c>
-      <c r="P301">
-        <v>1285</v>
-      </c>
-      <c r="Q301">
-        <v>1349.39660644531</v>
-      </c>
-      <c r="R301" t="s">
-        <v>921</v>
-      </c>
-      <c r="S301" t="s">
-        <v>34</v>
-      </c>
-      <c r="T301" t="s">
-        <v>923</v>
-      </c>
-      <c r="U301" t="s">
-        <v>326</v>
-      </c>
-      <c r="V301" s="1">
-        <v>20821</v>
-      </c>
-      <c r="W301" s="1">
-        <v>45313</v>
-      </c>
-      <c r="X301">
-        <v>23174</v>
-      </c>
-      <c r="Y301">
-        <v>12307</v>
-      </c>
-      <c r="Z301" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A302" s="8">
-        <v>286</v>
-      </c>
-      <c r="B302" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C302" s="8">
-        <v>3418</v>
-      </c>
-      <c r="D302" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E302" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F302" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G302" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H302" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I302" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J302" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K302" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L302" s="8">
-        <v>3418</v>
-      </c>
-      <c r="M302" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N302" s="8">
-        <v>11.10552</v>
-      </c>
-      <c r="O302" s="8">
-        <v>45.78904</v>
-      </c>
-      <c r="P302" s="8">
-        <v>550</v>
-      </c>
-      <c r="Q302" s="8">
-        <v>543.7939453125</v>
-      </c>
-      <c r="R302" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="S302" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T302" s="8">
-        <v>3476</v>
-      </c>
-      <c r="U302" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="V302" s="9">
-        <v>37622</v>
-      </c>
-      <c r="W302" s="9">
-        <v>41183</v>
-      </c>
-      <c r="X302" s="8">
-        <v>1574</v>
-      </c>
-      <c r="Y302" s="8">
-        <v>1574</v>
-      </c>
-      <c r="Z302" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA302" s="8"/>
-      <c r="AB302" s="8"/>
-      <c r="AC302" s="8"/>
-      <c r="AD302" s="10" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A303" s="8">
-        <v>287</v>
-      </c>
-      <c r="B303" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C303" s="8">
-        <v>3276</v>
-      </c>
-      <c r="D303" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E303" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F303" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G303" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H303" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I303" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J303" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K303" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L303" s="8">
-        <v>3276</v>
-      </c>
-      <c r="M303" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N303" s="8">
-        <v>11.2483</v>
-      </c>
-      <c r="O303" s="8">
-        <v>46.813299999999998</v>
-      </c>
-      <c r="P303" s="8">
-        <v>697</v>
-      </c>
-      <c r="Q303" s="8">
-        <v>724.25866699218795</v>
-      </c>
-      <c r="R303" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="S303" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T303" s="8">
-        <v>3511</v>
-      </c>
-      <c r="U303" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="V303" s="9">
-        <v>37622</v>
-      </c>
-      <c r="W303" s="9">
-        <v>41183</v>
-      </c>
-      <c r="X303" s="8">
-        <v>1553</v>
-      </c>
-      <c r="Y303" s="8">
-        <v>1553</v>
-      </c>
-      <c r="Z303" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA303" s="8"/>
-      <c r="AB303" s="8"/>
-      <c r="AC303" s="8"/>
-      <c r="AD303" s="10" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A304">
-        <v>289</v>
-      </c>
-      <c r="B304" t="s">
-        <v>26</v>
-      </c>
-      <c r="C304">
-        <v>3277</v>
-      </c>
-      <c r="D304" t="s">
-        <v>26</v>
-      </c>
-      <c r="E304" t="s">
-        <v>149</v>
-      </c>
-      <c r="F304" t="s">
-        <v>28</v>
       </c>
       <c r="G304" t="s">
         <v>26</v>
@@ -29111,55 +29258,55 @@
         <v>31</v>
       </c>
       <c r="K304" t="s">
-        <v>26</v>
+        <v>921</v>
       </c>
       <c r="L304">
-        <v>3277</v>
+        <v>47</v>
       </c>
       <c r="M304" t="s">
-        <v>32</v>
+        <v>334</v>
       </c>
       <c r="N304">
-        <v>12.244719999999999</v>
+        <v>12.1</v>
       </c>
       <c r="O304">
-        <v>46.826949999999997</v>
+        <v>46.7119</v>
       </c>
       <c r="P304">
-        <v>1509</v>
+        <v>1285</v>
       </c>
       <c r="Q304">
-        <v>1554.30017089844</v>
+        <v>1349.39660644531</v>
       </c>
       <c r="R304" t="s">
-        <v>150</v>
+        <v>921</v>
       </c>
       <c r="S304" t="s">
         <v>34</v>
       </c>
-      <c r="T304">
-        <v>3513</v>
+      <c r="T304" t="s">
+        <v>923</v>
       </c>
       <c r="U304" t="s">
-        <v>35</v>
+        <v>326</v>
       </c>
       <c r="V304" s="1">
-        <v>37259</v>
+        <v>20821</v>
       </c>
       <c r="W304" s="1">
-        <v>45169</v>
+        <v>45313</v>
       </c>
       <c r="X304">
-        <v>5853</v>
+        <v>23174</v>
       </c>
       <c r="Y304">
-        <v>5853</v>
+        <v>12307</v>
       </c>
       <c r="Z304" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>821</v>
       </c>
@@ -29239,7 +29386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>822</v>
       </c>
@@ -29319,7 +29466,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>823</v>
       </c>
@@ -29399,7 +29546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>824</v>
       </c>
@@ -29479,7 +29626,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>826</v>
       </c>
@@ -29559,7 +29706,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>543</v>
       </c>
@@ -29639,7 +29786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>827</v>
       </c>
@@ -29719,7 +29866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>828</v>
       </c>
@@ -29799,21 +29946,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A313">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B313" t="s">
         <v>26</v>
       </c>
       <c r="C313">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="D313" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="E313" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="F313" t="s">
         <v>316</v>
@@ -29831,69 +29978,69 @@
         <v>31</v>
       </c>
       <c r="K313" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="L313">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="M313" t="s">
         <v>32</v>
       </c>
       <c r="N313">
-        <v>11.061730669999999</v>
+        <v>10.78449781</v>
       </c>
       <c r="O313">
-        <v>46.345655890000003</v>
+        <v>46.188471139999997</v>
       </c>
       <c r="P313">
-        <v>532</v>
+        <v>1100</v>
       </c>
       <c r="Q313">
-        <v>527.02453613281205</v>
+        <v>1100.54760742188</v>
       </c>
       <c r="R313" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="S313" t="s">
         <v>34</v>
       </c>
       <c r="T313" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="U313" t="s">
         <v>318</v>
       </c>
       <c r="V313" s="1">
-        <v>27395</v>
+        <v>31413</v>
       </c>
       <c r="W313" s="1">
-        <v>37986</v>
+        <v>36160</v>
       </c>
       <c r="X313">
-        <v>10530</v>
+        <v>4738</v>
       </c>
       <c r="Y313">
-        <v>5106</v>
+        <v>3279</v>
       </c>
       <c r="Z313" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A314">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B314" t="s">
         <v>26</v>
       </c>
       <c r="C314">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="D314" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="E314" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="F314" t="s">
         <v>316</v>
@@ -29911,69 +30058,69 @@
         <v>31</v>
       </c>
       <c r="K314" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="L314">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="M314" t="s">
         <v>32</v>
       </c>
       <c r="N314">
-        <v>10.980275000000001</v>
+        <v>11.30223</v>
       </c>
       <c r="O314">
-        <v>46.065195000000003</v>
+        <v>46.107092999999999</v>
       </c>
       <c r="P314">
-        <v>252</v>
+        <v>925</v>
       </c>
       <c r="Q314">
-        <v>249.92875671386699</v>
+        <v>928.74353027343795</v>
       </c>
       <c r="R314" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="S314" t="s">
         <v>34</v>
       </c>
       <c r="T314" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="U314" t="s">
         <v>330</v>
       </c>
       <c r="V314" s="1">
-        <v>27395</v>
+        <v>12785</v>
       </c>
       <c r="W314" s="1">
         <v>45313</v>
       </c>
       <c r="X314">
-        <v>16634</v>
+        <v>29474</v>
       </c>
       <c r="Y314">
-        <v>11888</v>
+        <v>12095</v>
       </c>
       <c r="Z314" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A315">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B315" t="s">
         <v>26</v>
       </c>
       <c r="C315">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="D315" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="E315" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="F315" t="s">
         <v>316</v>
@@ -29991,69 +30138,69 @@
         <v>31</v>
       </c>
       <c r="K315" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="L315">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="M315" t="s">
         <v>32</v>
       </c>
       <c r="N315">
-        <v>10.78449781</v>
+        <v>11.061730669999999</v>
       </c>
       <c r="O315">
-        <v>46.188471139999997</v>
+        <v>46.345655890000003</v>
       </c>
       <c r="P315">
-        <v>1100</v>
+        <v>532</v>
       </c>
       <c r="Q315">
-        <v>1100.54760742188</v>
+        <v>527.02453613281205</v>
       </c>
       <c r="R315" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="S315" t="s">
         <v>34</v>
       </c>
       <c r="T315" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="U315" t="s">
         <v>318</v>
       </c>
       <c r="V315" s="1">
-        <v>31413</v>
+        <v>27395</v>
       </c>
       <c r="W315" s="1">
-        <v>36160</v>
+        <v>37986</v>
       </c>
       <c r="X315">
-        <v>4738</v>
+        <v>10530</v>
       </c>
       <c r="Y315">
-        <v>3279</v>
+        <v>5106</v>
       </c>
       <c r="Z315" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A316">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B316" t="s">
         <v>26</v>
       </c>
       <c r="C316">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="D316" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="E316" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="F316" t="s">
         <v>316</v>
@@ -30071,55 +30218,55 @@
         <v>31</v>
       </c>
       <c r="K316" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="L316">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="M316" t="s">
         <v>32</v>
       </c>
       <c r="N316">
-        <v>11.30223</v>
+        <v>10.980275000000001</v>
       </c>
       <c r="O316">
-        <v>46.107092999999999</v>
+        <v>46.065195000000003</v>
       </c>
       <c r="P316">
-        <v>925</v>
+        <v>252</v>
       </c>
       <c r="Q316">
-        <v>928.74353027343795</v>
+        <v>249.92875671386699</v>
       </c>
       <c r="R316" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="S316" t="s">
         <v>34</v>
       </c>
       <c r="T316" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="U316" t="s">
         <v>330</v>
       </c>
       <c r="V316" s="1">
-        <v>12785</v>
+        <v>27395</v>
       </c>
       <c r="W316" s="1">
         <v>45313</v>
       </c>
       <c r="X316">
-        <v>29474</v>
+        <v>16634</v>
       </c>
       <c r="Y316">
-        <v>12095</v>
+        <v>11888</v>
       </c>
       <c r="Z316" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A317" s="8">
         <v>833</v>
       </c>
@@ -30201,11 +30348,13 @@
       <c r="AA317" s="8"/>
       <c r="AB317" s="8"/>
       <c r="AC317" s="8"/>
-      <c r="AD317" s="10" t="s">
+      <c r="AD317" s="8"/>
+      <c r="AE317" s="8"/>
+      <c r="AF317" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A318" s="8">
         <v>255</v>
       </c>
@@ -30287,11 +30436,13 @@
       <c r="AA318" s="8"/>
       <c r="AB318" s="8"/>
       <c r="AC318" s="8"/>
-      <c r="AD318" s="10" t="s">
+      <c r="AD318" s="8"/>
+      <c r="AE318" s="8"/>
+      <c r="AF318" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>834</v>
       </c>
@@ -30371,7 +30522,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>258</v>
       </c>
@@ -30450,11 +30601,11 @@
       <c r="Z320" t="s">
         <v>36</v>
       </c>
-      <c r="AD320" s="4" t="s">
+      <c r="AF320" s="4" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>550</v>
       </c>
@@ -30534,7 +30685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>835</v>
       </c>
@@ -30614,7 +30765,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>836</v>
       </c>
@@ -30694,7 +30845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>838</v>
       </c>
@@ -30774,7 +30925,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>837</v>
       </c>
@@ -30854,7 +31005,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>839</v>
       </c>
@@ -30934,7 +31085,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>840</v>
       </c>
@@ -31014,7 +31165,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A328" s="8">
         <v>261</v>
       </c>
@@ -31098,11 +31249,13 @@
       <c r="AC328" s="8">
         <v>3191</v>
       </c>
-      <c r="AD328" s="10" t="s">
+      <c r="AD328" s="8"/>
+      <c r="AE328" s="8"/>
+      <c r="AF328" s="10" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="329" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A329" s="8">
         <v>842</v>
       </c>
@@ -31184,11 +31337,13 @@
       <c r="AA329" s="8"/>
       <c r="AB329" s="8"/>
       <c r="AC329" s="8"/>
-      <c r="AD329" s="10" t="s">
+      <c r="AD329" s="8"/>
+      <c r="AE329" s="8"/>
+      <c r="AF329" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="330" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>841</v>
       </c>
@@ -31268,7 +31423,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="331" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>843</v>
       </c>
@@ -31348,7 +31503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="332" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A332" s="8">
         <v>844</v>
       </c>
@@ -31430,11 +31585,13 @@
       <c r="AA332" s="8"/>
       <c r="AB332" s="8"/>
       <c r="AC332" s="8"/>
-      <c r="AD332" s="10" t="s">
+      <c r="AD332" s="8"/>
+      <c r="AE332" s="8"/>
+      <c r="AF332" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="333" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>845</v>
       </c>
@@ -31514,7 +31671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="334" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>557</v>
       </c>
@@ -31594,7 +31751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="335" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>846</v>
       </c>
@@ -31674,7 +31831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="336" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>847</v>
       </c>
@@ -31754,7 +31911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="337" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>848</v>
       </c>
@@ -31834,7 +31991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="338" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>267</v>
       </c>
@@ -31914,7 +32071,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="339" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A339" s="8">
         <v>268</v>
       </c>
@@ -31996,11 +32153,13 @@
       <c r="AA339" s="8"/>
       <c r="AB339" s="8"/>
       <c r="AC339" s="8"/>
-      <c r="AD339" s="10" t="s">
+      <c r="AD339" s="8"/>
+      <c r="AE339" s="8"/>
+      <c r="AF339" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="340" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>269</v>
       </c>
@@ -32080,7 +32239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="341" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A341" s="8">
         <v>270</v>
       </c>
@@ -32162,11 +32321,13 @@
       <c r="AA341" s="8"/>
       <c r="AB341" s="8"/>
       <c r="AC341" s="8"/>
-      <c r="AD341" s="10" t="s">
+      <c r="AD341" s="8"/>
+      <c r="AE341" s="8"/>
+      <c r="AF341" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="342" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>849</v>
       </c>
@@ -32246,7 +32407,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="343" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>281</v>
       </c>
@@ -32326,7 +32487,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="344" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>562</v>
       </c>
@@ -32406,7 +32567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="345" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A345" s="8">
         <v>276</v>
       </c>
@@ -32488,11 +32649,13 @@
       <c r="AA345" s="8"/>
       <c r="AB345" s="8"/>
       <c r="AC345" s="8"/>
-      <c r="AD345" s="10" t="s">
+      <c r="AD345" s="8"/>
+      <c r="AE345" s="8"/>
+      <c r="AF345" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>850</v>
       </c>
@@ -32572,7 +32735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="347" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>851</v>
       </c>
@@ -32652,7 +32815,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="348" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>852</v>
       </c>
@@ -32732,7 +32895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="349" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A349" s="8">
         <v>853</v>
       </c>
@@ -32814,11 +32977,13 @@
       <c r="AA349" s="8"/>
       <c r="AB349" s="8"/>
       <c r="AC349" s="8"/>
-      <c r="AD349" s="10" t="s">
+      <c r="AD349" s="8"/>
+      <c r="AE349" s="8"/>
+      <c r="AF349" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="350" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>854</v>
       </c>
@@ -32898,7 +33063,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="351" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>855</v>
       </c>
@@ -32978,7 +33143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="352" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>856</v>
       </c>
@@ -33058,7 +33223,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A353" s="8">
         <v>295</v>
       </c>
@@ -33140,11 +33305,13 @@
       <c r="AA353" s="8"/>
       <c r="AB353" s="8"/>
       <c r="AC353" s="8"/>
-      <c r="AD353" s="10" t="s">
+      <c r="AD353" s="8"/>
+      <c r="AE353" s="8"/>
+      <c r="AF353" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>857</v>
       </c>
@@ -33224,7 +33391,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A355" s="5">
         <v>300</v>
       </c>
@@ -33306,11 +33473,13 @@
       <c r="AA355" s="5"/>
       <c r="AB355" s="5"/>
       <c r="AC355" s="5"/>
-      <c r="AD355" s="7" t="s">
+      <c r="AD355" s="5"/>
+      <c r="AE355" s="5"/>
+      <c r="AF355" s="7" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>858</v>
       </c>
@@ -33390,7 +33559,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>570</v>
       </c>
@@ -33470,7 +33639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>859</v>
       </c>
@@ -33550,7 +33719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>302</v>
       </c>
@@ -33630,7 +33799,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A360" s="8">
         <v>860</v>
       </c>
@@ -33712,9 +33881,11 @@
       <c r="AA360" s="8"/>
       <c r="AB360" s="8"/>
       <c r="AC360" s="8"/>
-      <c r="AD360" s="10"/>
-    </row>
-    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD360" s="8"/>
+      <c r="AE360" s="8"/>
+      <c r="AF360" s="10"/>
+    </row>
+    <row r="361" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>573</v>
       </c>
@@ -33794,7 +33965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>861</v>
       </c>
@@ -33874,7 +34045,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A363" s="5">
         <v>575</v>
       </c>
@@ -33956,11 +34127,13 @@
       <c r="AA363" s="5"/>
       <c r="AB363" s="5"/>
       <c r="AC363" s="5"/>
-      <c r="AD363" s="7" t="s">
+      <c r="AD363" s="5"/>
+      <c r="AE363" s="5"/>
+      <c r="AF363" s="7" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>308</v>
       </c>
@@ -34040,7 +34213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>862</v>
       </c>
@@ -34120,7 +34293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>863</v>
       </c>
@@ -34200,7 +34373,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>864</v>
       </c>
@@ -34280,7 +34453,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A368" s="5">
         <v>579</v>
       </c>
@@ -34362,11 +34535,13 @@
       <c r="AA368" s="5"/>
       <c r="AB368" s="5"/>
       <c r="AC368" s="5"/>
-      <c r="AD368" s="7" t="s">
+      <c r="AD368" s="5"/>
+      <c r="AE368" s="5"/>
+      <c r="AF368" s="7" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>865</v>
       </c>
@@ -34446,7 +34621,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="370" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>866</v>
       </c>
@@ -34526,7 +34701,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>315</v>
       </c>
@@ -34606,7 +34781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>867</v>
       </c>
@@ -34686,7 +34861,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>868</v>
       </c>
@@ -34766,7 +34941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="374" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>869</v>
       </c>
@@ -34846,7 +35021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="375" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A375" s="8">
         <v>870</v>
       </c>
@@ -34928,11 +35103,13 @@
       <c r="AA375" s="8"/>
       <c r="AB375" s="8"/>
       <c r="AC375" s="8"/>
-      <c r="AD375" s="10" t="s">
+      <c r="AD375" s="8"/>
+      <c r="AE375" s="8"/>
+      <c r="AF375" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="376" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>871</v>
       </c>
@@ -35012,7 +35189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="377" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>872</v>
       </c>
@@ -35092,7 +35269,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="378" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>873</v>
       </c>
@@ -35172,7 +35349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="379" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>874</v>
       </c>
@@ -35252,7 +35429,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="380" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>586</v>
       </c>
@@ -35332,7 +35509,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>875</v>
       </c>
@@ -35412,7 +35589,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>876</v>
       </c>
@@ -35492,7 +35669,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>877</v>
       </c>
@@ -35572,7 +35749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>878</v>
       </c>
@@ -35652,7 +35829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>883</v>
       </c>
@@ -35732,7 +35909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>879</v>
       </c>
@@ -35812,7 +35989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>590</v>
       </c>
@@ -35892,7 +36069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>880</v>
       </c>
@@ -35972,7 +36149,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>881</v>
       </c>
@@ -36052,7 +36229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>882</v>
       </c>
@@ -36132,7 +36309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A391" s="8">
         <v>325</v>
       </c>
@@ -36214,11 +36391,13 @@
       <c r="AA391" s="8"/>
       <c r="AB391" s="8"/>
       <c r="AC391" s="8"/>
-      <c r="AD391" s="10" t="s">
+      <c r="AD391" s="8"/>
+      <c r="AE391" s="8"/>
+      <c r="AF391" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>884</v>
       </c>
@@ -36298,7 +36477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>885</v>
       </c>
@@ -36378,7 +36557,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>886</v>
       </c>
@@ -36458,7 +36637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>887</v>
       </c>
@@ -36538,7 +36717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>888</v>
       </c>
@@ -36618,7 +36797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>889</v>
       </c>
@@ -36698,7 +36877,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>594</v>
       </c>
@@ -36778,7 +36957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>890</v>
       </c>
@@ -36858,7 +37037,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
         <v>596</v>
       </c>
@@ -36940,11 +37119,13 @@
       <c r="AA400" s="5"/>
       <c r="AB400" s="5"/>
       <c r="AC400" s="5"/>
-      <c r="AD400" s="7" t="s">
+      <c r="AD400" s="5"/>
+      <c r="AE400" s="5"/>
+      <c r="AF400" s="7" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>891</v>
       </c>
@@ -37024,7 +37205,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>892</v>
       </c>
@@ -37104,7 +37285,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="403" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>893</v>
       </c>
@@ -37184,7 +37365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="404" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>894</v>
       </c>
@@ -37264,7 +37445,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="405" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>895</v>
       </c>
@@ -37344,7 +37525,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="406" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A406" s="8">
         <v>896</v>
       </c>
@@ -37426,11 +37607,13 @@
       <c r="AA406" s="8"/>
       <c r="AB406" s="8"/>
       <c r="AC406" s="8"/>
-      <c r="AD406" s="10" t="s">
+      <c r="AD406" s="8"/>
+      <c r="AE406" s="8"/>
+      <c r="AF406" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="407" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>898</v>
       </c>
@@ -37510,7 +37693,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="408" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>897</v>
       </c>
@@ -37590,7 +37773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="409" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A409" s="8">
         <v>342</v>
       </c>
@@ -37672,11 +37855,13 @@
       <c r="AA409" s="8"/>
       <c r="AB409" s="8"/>
       <c r="AC409" s="8"/>
-      <c r="AD409" s="10" t="s">
+      <c r="AD409" s="8"/>
+      <c r="AE409" s="8"/>
+      <c r="AF409" s="10" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="410" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>603</v>
       </c>
@@ -37756,7 +37941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="411" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>899</v>
       </c>
@@ -37836,7 +38021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="412" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>604</v>
       </c>
@@ -37916,7 +38101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="413" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>346</v>
       </c>
@@ -37996,7 +38181,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="414" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>900</v>
       </c>
@@ -38076,7 +38261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="415" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>901</v>
       </c>
@@ -38156,7 +38341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="416" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>902</v>
       </c>
@@ -38237,7 +38422,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD416">
+  <autoFilter ref="A1:AF416" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF416">
+      <sortCondition ref="E1:E416"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF416">
     <sortCondition ref="E2:E416"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
